--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/2022-05-16_2022-05-22_total_outlier.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/2022-05-16_2022-05-22_total_outlier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>날짜</t>
   </si>
@@ -46,151 +46,130 @@
     <t>사이트</t>
   </si>
   <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
     <t>2022-05-19</t>
   </si>
   <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
     <t>2022-05-21</t>
   </si>
   <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>2022-05-20</t>
-  </si>
-  <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>Real Love</t>
-  </si>
-  <si>
-    <t>꽃 길</t>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
+  </si>
+  <si>
+    <t>천왕성</t>
+  </si>
+  <si>
+    <t>사랑의 인사</t>
+  </si>
+  <si>
+    <t>Bye Bye</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Intro : Who Got the Joker?</t>
+  </si>
+  <si>
+    <t>돌아버리겠네</t>
   </si>
   <si>
     <t>둘이서 떠나요</t>
   </si>
   <si>
-    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
-  </si>
-  <si>
-    <t>밤이 깊었네 (feat. 헤이즈)</t>
-  </si>
-  <si>
-    <t>스물다섯, 스물하나</t>
-  </si>
-  <si>
-    <t>우리들의 블루스</t>
-  </si>
-  <si>
-    <t>함부로 다정하게</t>
-  </si>
-  <si>
-    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
-  </si>
-  <si>
-    <t>YOU AND I</t>
-  </si>
-  <si>
-    <t>밤하늘의 별을 (2020)</t>
-  </si>
-  <si>
-    <t>방탄소년단</t>
-  </si>
-  <si>
-    <t>오마이걸(OH MY GIRL)</t>
-  </si>
-  <si>
-    <t>BIGBANG (빅뱅)</t>
+    <t>그 중에 그대를 만나</t>
+  </si>
+  <si>
+    <t>케이시</t>
+  </si>
+  <si>
+    <t>이수영</t>
+  </si>
+  <si>
+    <t>WSG워너비 조별경연 (비로봉)</t>
+  </si>
+  <si>
+    <t>펀치 (Punch)</t>
+  </si>
+  <si>
+    <t>휘인(Whee In)</t>
+  </si>
+  <si>
+    <t>원어스 (ONEUS)</t>
+  </si>
+  <si>
+    <t>김범수</t>
   </si>
   <si>
     <t>다비치</t>
   </si>
   <si>
-    <t>폴킴(Paul Kim)</t>
-  </si>
-  <si>
-    <t>싸이 (PSY)</t>
-  </si>
-  <si>
-    <t>자우림(Jaurim)</t>
-  </si>
-  <si>
-    <t>임영웅</t>
-  </si>
-  <si>
-    <t>송하예</t>
-  </si>
-  <si>
-    <t>sokodomo</t>
-  </si>
-  <si>
-    <t>WSG워너비 조별경연 (대청봉)</t>
-  </si>
-  <si>
-    <t>경서</t>
-  </si>
-  <si>
-    <t>빅히트</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
-    <t>YG</t>
+    <t>정은지</t>
+  </si>
+  <si>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
+    <t>NEXTAR</t>
+  </si>
+  <si>
+    <t>뉴에라프로젝트</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>YAMYAM</t>
+  </si>
+  <si>
+    <t>THE L1VE</t>
+  </si>
+  <si>
+    <t>RBW</t>
+  </si>
+  <si>
+    <t>영</t>
   </si>
   <si>
     <t>WAKE ONE</t>
   </si>
   <si>
-    <t>neuron music</t>
-  </si>
-  <si>
-    <t>P NATION</t>
-  </si>
-  <si>
-    <t>인터파크 엔터테인먼트</t>
-  </si>
-  <si>
-    <t>물고기뮤직</t>
-  </si>
-  <si>
-    <t>아이컨텍컴퍼니</t>
-  </si>
-  <si>
-    <t>SONY MUSIC</t>
-  </si>
-  <si>
-    <t>MBC</t>
-  </si>
-  <si>
-    <t>꿈의엔진</t>
-  </si>
-  <si>
-    <t>Dynamite (DayTime Version)</t>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>LOVE &amp; HATE</t>
+  </si>
+  <si>
+    <t>SORY</t>
+  </si>
+  <si>
+    <t>WSG워너비 조별경연 Part 2.</t>
+  </si>
+  <si>
+    <t>우리들의 블루스 OST Part 9</t>
+  </si>
+  <si>
+    <t>Melody (공짜:공기타짜 X 휘인 (Whee In))</t>
+  </si>
+  <si>
+    <t>TRICKSTER</t>
+  </si>
+  <si>
+    <t>우리는 오늘부터 OST Part. 2</t>
   </si>
   <si>
     <t>Season Note</t>
-  </si>
-  <si>
-    <t>'키스 먼저 할까요?' OST Part.3</t>
-  </si>
-  <si>
-    <t>싸다9</t>
-  </si>
-  <si>
-    <t>Goodbye, grief.</t>
-  </si>
-  <si>
-    <t>IM HERO</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Episode 2</t>
-  </si>
-  <si>
-    <t>WSG워너비 조별경연 Part 2.</t>
   </si>
   <si>
     <t>기타</t>
@@ -557,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,95 +579,95 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -696,287 +675,223 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
       <c r="I5">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>44.5</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I11">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
